--- a/0_0_Data/2_Processed_Data/1_rt_GDP_series/qoq_rt_GDP_data.xlsx
+++ b/0_0_Data/2_Processed_Data/1_rt_GDP_series/qoq_rt_GDP_data.xlsx
@@ -380,13 +380,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CE140"/>
+  <dimension ref="A1:CF141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:83">
+    <row r="1" spans="1:84">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -636,13 +636,16 @@
       <c r="CE1" s="2">
         <v>45891</v>
       </c>
+      <c r="CF1" s="2">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:83">
+    <row r="2" spans="1:84">
       <c r="A2" s="2">
         <v>33284</v>
       </c>
     </row>
-    <row r="3" spans="1:83">
+    <row r="3" spans="1:84">
       <c r="A3" s="2">
         <v>33374</v>
       </c>
@@ -892,8 +895,11 @@
       <c r="CE3">
         <v>-0.4801581697500401</v>
       </c>
+      <c r="CF3">
+        <v>-0.4801581697500401</v>
+      </c>
     </row>
-    <row r="4" spans="1:83">
+    <row r="4" spans="1:84">
       <c r="A4" s="2">
         <v>33465</v>
       </c>
@@ -1143,8 +1149,11 @@
       <c r="CE4">
         <v>-0.156094792110117</v>
       </c>
+      <c r="CF4">
+        <v>-0.156094792110117</v>
+      </c>
     </row>
-    <row r="5" spans="1:83">
+    <row r="5" spans="1:84">
       <c r="A5" s="2">
         <v>33557</v>
       </c>
@@ -1394,8 +1403,11 @@
       <c r="CE5">
         <v>1.43547470153497</v>
       </c>
+      <c r="CF5">
+        <v>1.43547470153497</v>
+      </c>
     </row>
-    <row r="6" spans="1:83">
+    <row r="6" spans="1:84">
       <c r="A6" s="2">
         <v>33649</v>
       </c>
@@ -1645,8 +1657,11 @@
       <c r="CE6">
         <v>1.373125963289883</v>
       </c>
+      <c r="CF6">
+        <v>1.373125963289883</v>
+      </c>
     </row>
-    <row r="7" spans="1:83">
+    <row r="7" spans="1:84">
       <c r="A7" s="2">
         <v>33740</v>
       </c>
@@ -1896,8 +1911,11 @@
       <c r="CE7">
         <v>-0.6219765031098669</v>
       </c>
+      <c r="CF7">
+        <v>-0.6219765031098669</v>
+      </c>
     </row>
-    <row r="8" spans="1:83">
+    <row r="8" spans="1:84">
       <c r="A8" s="2">
         <v>33831</v>
       </c>
@@ -2147,8 +2165,11 @@
       <c r="CE8">
         <v>-0.2364394993045921</v>
       </c>
+      <c r="CF8">
+        <v>-0.2364394993045921</v>
+      </c>
     </row>
-    <row r="9" spans="1:83">
+    <row r="9" spans="1:84">
       <c r="A9" s="2">
         <v>33923</v>
       </c>
@@ -2398,8 +2419,11 @@
       <c r="CE9">
         <v>-0.2788233653980243</v>
       </c>
+      <c r="CF9">
+        <v>-0.2788233653980243</v>
+      </c>
     </row>
-    <row r="10" spans="1:83">
+    <row r="10" spans="1:84">
       <c r="A10" s="2">
         <v>34015</v>
       </c>
@@ -2649,8 +2673,11 @@
       <c r="CE10">
         <v>-0.7968684468055465</v>
       </c>
+      <c r="CF10">
+        <v>-0.7968684468055465</v>
+      </c>
     </row>
-    <row r="11" spans="1:83">
+    <row r="11" spans="1:84">
       <c r="A11" s="2">
         <v>34105</v>
       </c>
@@ -2900,8 +2927,11 @@
       <c r="CE11">
         <v>0.01409244644871071</v>
       </c>
+      <c r="CF11">
+        <v>0.01409244644871071</v>
+      </c>
     </row>
-    <row r="12" spans="1:83">
+    <row r="12" spans="1:84">
       <c r="A12" s="2">
         <v>34196</v>
       </c>
@@ -3151,8 +3181,11 @@
       <c r="CE12">
         <v>0.5917993518388075</v>
       </c>
+      <c r="CF12">
+        <v>0.5917993518388075</v>
+      </c>
     </row>
-    <row r="13" spans="1:83">
+    <row r="13" spans="1:84">
       <c r="A13" s="2">
         <v>34288</v>
       </c>
@@ -3402,8 +3435,11 @@
       <c r="CE13">
         <v>-0.08404538450763731</v>
       </c>
+      <c r="CF13">
+        <v>-0.08404538450763731</v>
+      </c>
     </row>
-    <row r="14" spans="1:83">
+    <row r="14" spans="1:84">
       <c r="A14" s="2">
         <v>34380</v>
       </c>
@@ -3653,8 +3689,11 @@
       <c r="CE14">
         <v>1.415954016542836</v>
       </c>
+      <c r="CF14">
+        <v>1.415954016542836</v>
+      </c>
     </row>
-    <row r="15" spans="1:83">
+    <row r="15" spans="1:84">
       <c r="A15" s="2">
         <v>34470</v>
       </c>
@@ -3904,8 +3943,11 @@
       <c r="CE15">
         <v>0.5529444290848651</v>
       </c>
+      <c r="CF15">
+        <v>0.5529444290848651</v>
+      </c>
     </row>
-    <row r="16" spans="1:83">
+    <row r="16" spans="1:84">
       <c r="A16" s="2">
         <v>34561</v>
       </c>
@@ -4155,8 +4197,11 @@
       <c r="CE16">
         <v>0.5911465493538725</v>
       </c>
+      <c r="CF16">
+        <v>0.5911465493538725</v>
+      </c>
     </row>
-    <row r="17" spans="1:83">
+    <row r="17" spans="1:84">
       <c r="A17" s="2">
         <v>34653</v>
       </c>
@@ -4406,8 +4451,11 @@
       <c r="CE17">
         <v>1.107011070110704</v>
       </c>
+      <c r="CF17">
+        <v>1.107011070110704</v>
+      </c>
     </row>
-    <row r="18" spans="1:83">
+    <row r="18" spans="1:84">
       <c r="A18" s="2">
         <v>34745</v>
       </c>
@@ -4657,8 +4705,11 @@
       <c r="CE18">
         <v>-0.3919978372533202</v>
       </c>
+      <c r="CF18">
+        <v>-0.3919978372533202</v>
+      </c>
     </row>
-    <row r="19" spans="1:83">
+    <row r="19" spans="1:84">
       <c r="A19" s="2">
         <v>34835</v>
       </c>
@@ -4908,8 +4959,11 @@
       <c r="CE19">
         <v>0.8006513773917809</v>
       </c>
+      <c r="CF19">
+        <v>0.8006513773917809</v>
+      </c>
     </row>
-    <row r="20" spans="1:83">
+    <row r="20" spans="1:84">
       <c r="A20" s="2">
         <v>34926</v>
       </c>
@@ -5159,8 +5213,11 @@
       <c r="CE20">
         <v>0.2019386106623663</v>
       </c>
+      <c r="CF20">
+        <v>0.2019386106623663</v>
+      </c>
     </row>
-    <row r="21" spans="1:83">
+    <row r="21" spans="1:84">
       <c r="A21" s="2">
         <v>35018</v>
       </c>
@@ -5410,8 +5467,11 @@
       <c r="CE21">
         <v>0.04030632809349311</v>
       </c>
+      <c r="CF21">
+        <v>0.04030632809349311</v>
+      </c>
     </row>
-    <row r="22" spans="1:83">
+    <row r="22" spans="1:84">
       <c r="A22" s="2">
         <v>35110</v>
       </c>
@@ -5661,8 +5721,11 @@
       <c r="CE22">
         <v>-0.7117915659414276</v>
       </c>
+      <c r="CF22">
+        <v>-0.7117915659414276</v>
+      </c>
     </row>
-    <row r="23" spans="1:83">
+    <row r="23" spans="1:84">
       <c r="A23" s="2">
         <v>35201</v>
       </c>
@@ -5912,8 +5975,11 @@
       <c r="CE23">
         <v>1.366157175706737</v>
       </c>
+      <c r="CF23">
+        <v>1.366157175706737</v>
+      </c>
     </row>
-    <row r="24" spans="1:83">
+    <row r="24" spans="1:84">
       <c r="A24" s="2">
         <v>35292</v>
       </c>
@@ -6163,8 +6229,11 @@
       <c r="CE24">
         <v>0.3869762476648069</v>
       </c>
+      <c r="CF24">
+        <v>0.3869762476648069</v>
+      </c>
     </row>
-    <row r="25" spans="1:83">
+    <row r="25" spans="1:84">
       <c r="A25" s="2">
         <v>35384</v>
       </c>
@@ -6414,8 +6483,11 @@
       <c r="CE25">
         <v>0.9171872923035993</v>
       </c>
+      <c r="CF25">
+        <v>0.9171872923035993</v>
+      </c>
     </row>
-    <row r="26" spans="1:83">
+    <row r="26" spans="1:84">
       <c r="A26" s="2">
         <v>35476</v>
       </c>
@@ -6665,8 +6737,11 @@
       <c r="CE26">
         <v>-0.513698630136987</v>
       </c>
+      <c r="CF26">
+        <v>-0.513698630136987</v>
+      </c>
     </row>
-    <row r="27" spans="1:83">
+    <row r="27" spans="1:84">
       <c r="A27" s="2">
         <v>35566</v>
       </c>
@@ -6916,8 +6991,11 @@
       <c r="CE27">
         <v>1.11214087117702</v>
       </c>
+      <c r="CF27">
+        <v>1.11214087117702</v>
+      </c>
     </row>
-    <row r="28" spans="1:83">
+    <row r="28" spans="1:84">
       <c r="A28" s="2">
         <v>35657</v>
       </c>
@@ -7167,8 +7245,11 @@
       <c r="CE28">
         <v>0.3928244074898483</v>
       </c>
+      <c r="CF28">
+        <v>0.3928244074898483</v>
+      </c>
     </row>
-    <row r="29" spans="1:83">
+    <row r="29" spans="1:84">
       <c r="A29" s="2">
         <v>35749</v>
       </c>
@@ -7418,8 +7499,11 @@
       <c r="CE29">
         <v>0.7434459371331592</v>
       </c>
+      <c r="CF29">
+        <v>0.7434459371331592</v>
+      </c>
     </row>
-    <row r="30" spans="1:83">
+    <row r="30" spans="1:84">
       <c r="A30" s="2">
         <v>35841</v>
       </c>
@@ -7669,8 +7753,11 @@
       <c r="CE30">
         <v>0.95805282237184</v>
       </c>
+      <c r="CF30">
+        <v>0.95805282237184</v>
+      </c>
     </row>
-    <row r="31" spans="1:83">
+    <row r="31" spans="1:84">
       <c r="A31" s="2">
         <v>35931</v>
       </c>
@@ -7920,8 +8007,11 @@
       <c r="CE31">
         <v>-0.4616568350859187</v>
       </c>
+      <c r="CF31">
+        <v>-0.4616568350859187</v>
+      </c>
     </row>
-    <row r="32" spans="1:83">
+    <row r="32" spans="1:84">
       <c r="A32" s="2">
         <v>36022</v>
       </c>
@@ -8171,8 +8261,11 @@
       <c r="CE32">
         <v>0.4895645452202981</v>
       </c>
+      <c r="CF32">
+        <v>0.4895645452202981</v>
+      </c>
     </row>
-    <row r="33" spans="1:83">
+    <row r="33" spans="1:84">
       <c r="A33" s="2">
         <v>36114</v>
       </c>
@@ -8422,8 +8515,11 @@
       <c r="CE33">
         <v>-0.02564102564102054</v>
       </c>
+      <c r="CF33">
+        <v>-0.02564102564102054</v>
+      </c>
     </row>
-    <row r="34" spans="1:83">
+    <row r="34" spans="1:84">
       <c r="A34" s="2">
         <v>36206</v>
       </c>
@@ -8673,8 +8769,11 @@
       <c r="CE34">
         <v>1.154142087714788</v>
       </c>
+      <c r="CF34">
+        <v>1.154142087714788</v>
+      </c>
     </row>
-    <row r="35" spans="1:83">
+    <row r="35" spans="1:84">
       <c r="A35" s="2">
         <v>36296</v>
       </c>
@@ -8924,8 +9023,11 @@
       <c r="CE35">
         <v>-0.1267748478701753</v>
       </c>
+      <c r="CF35">
+        <v>-0.1267748478701753</v>
+      </c>
     </row>
-    <row r="36" spans="1:83">
+    <row r="36" spans="1:84">
       <c r="A36" s="2">
         <v>36387</v>
       </c>
@@ -9175,8 +9277,11 @@
       <c r="CE36">
         <v>1.370906321401369</v>
       </c>
+      <c r="CF36">
+        <v>1.370906321401369</v>
+      </c>
     </row>
-    <row r="37" spans="1:83">
+    <row r="37" spans="1:84">
       <c r="A37" s="2">
         <v>36479</v>
       </c>
@@ -9426,8 +9531,11 @@
       <c r="CE37">
         <v>0.4758327072376602</v>
       </c>
+      <c r="CF37">
+        <v>0.4758327072376602</v>
+      </c>
     </row>
-    <row r="38" spans="1:83">
+    <row r="38" spans="1:84">
       <c r="A38" s="2">
         <v>36571</v>
       </c>
@@ -9677,8 +9785,11 @@
       <c r="CE38">
         <v>1.545363908275186</v>
       </c>
+      <c r="CF38">
+        <v>1.545363908275186</v>
+      </c>
     </row>
-    <row r="39" spans="1:83">
+    <row r="39" spans="1:84">
       <c r="A39" s="2">
         <v>36662</v>
       </c>
@@ -9928,8 +10039,11 @@
       <c r="CE39">
         <v>0.7977417771232099</v>
       </c>
+      <c r="CF39">
+        <v>0.7977417771232099</v>
+      </c>
     </row>
-    <row r="40" spans="1:83">
+    <row r="40" spans="1:84">
       <c r="A40" s="2">
         <v>36753</v>
       </c>
@@ -10179,8 +10293,11 @@
       <c r="CE40">
         <v>0.07305491294289818</v>
       </c>
+      <c r="CF40">
+        <v>0.07305491294289818</v>
+      </c>
     </row>
-    <row r="41" spans="1:83">
+    <row r="41" spans="1:84">
       <c r="A41" s="2">
         <v>36845</v>
       </c>
@@ -10430,8 +10547,11 @@
       <c r="CE41">
         <v>-0.4258425599221248</v>
       </c>
+      <c r="CF41">
+        <v>-0.4258425599221248</v>
+      </c>
     </row>
-    <row r="42" spans="1:83">
+    <row r="42" spans="1:84">
       <c r="A42" s="2">
         <v>36937</v>
       </c>
@@ -10681,8 +10801,11 @@
       <c r="CE42">
         <v>2.126099706744862</v>
       </c>
+      <c r="CF42">
+        <v>2.126099706744862</v>
+      </c>
     </row>
-    <row r="43" spans="1:83">
+    <row r="43" spans="1:84">
       <c r="A43" s="2">
         <v>37027</v>
       </c>
@@ -10932,8 +11055,11 @@
       <c r="CE43">
         <v>-0.2512562814070277</v>
       </c>
+      <c r="CF43">
+        <v>-0.2512562814070277</v>
+      </c>
     </row>
-    <row r="44" spans="1:83">
+    <row r="44" spans="1:84">
       <c r="A44" s="2">
         <v>37118</v>
       </c>
@@ -11183,8 +11309,11 @@
       <c r="CE44">
         <v>0</v>
       </c>
+      <c r="CF44">
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:83">
+    <row r="45" spans="1:84">
       <c r="A45" s="2">
         <v>37210</v>
       </c>
@@ -11434,8 +11563,11 @@
       <c r="CE45">
         <v>-0.3118627803766404</v>
       </c>
+      <c r="CF45">
+        <v>-0.3118627803766404</v>
+      </c>
     </row>
-    <row r="46" spans="1:83">
+    <row r="46" spans="1:84">
       <c r="A46" s="2">
         <v>37302</v>
       </c>
@@ -11685,8 +11817,11 @@
       <c r="CE46">
         <v>-0.4692576103958616</v>
       </c>
+      <c r="CF46">
+        <v>-0.4692576103958616</v>
+      </c>
     </row>
-    <row r="47" spans="1:83">
+    <row r="47" spans="1:84">
       <c r="A47" s="2">
         <v>37392</v>
       </c>
@@ -11936,8 +12071,11 @@
       <c r="CE47">
         <v>0.3868471953578426</v>
       </c>
+      <c r="CF47">
+        <v>0.3868471953578426</v>
+      </c>
     </row>
-    <row r="48" spans="1:83">
+    <row r="48" spans="1:84">
       <c r="A48" s="2">
         <v>37483</v>
       </c>
@@ -12187,8 +12325,11 @@
       <c r="CE48">
         <v>0.68641618497109</v>
       </c>
+      <c r="CF48">
+        <v>0.68641618497109</v>
+      </c>
     </row>
-    <row r="49" spans="1:83">
+    <row r="49" spans="1:84">
       <c r="A49" s="2">
         <v>37575</v>
       </c>
@@ -12438,8 +12579,11 @@
       <c r="CE49">
         <v>-0.2750867121157804</v>
       </c>
+      <c r="CF49">
+        <v>-0.2750867121157804</v>
+      </c>
     </row>
-    <row r="50" spans="1:83">
+    <row r="50" spans="1:84">
       <c r="A50" s="2">
         <v>37667</v>
       </c>
@@ -12689,8 +12833,11 @@
       <c r="CE50">
         <v>-1.355241065003592</v>
       </c>
+      <c r="CF50">
+        <v>-1.355241065003592</v>
+      </c>
     </row>
-    <row r="51" spans="1:83">
+    <row r="51" spans="1:84">
       <c r="A51" s="2">
         <v>37757</v>
       </c>
@@ -12940,8 +13087,11 @@
       <c r="CE51">
         <v>0.1458966565349599</v>
       </c>
+      <c r="CF51">
+        <v>0.1458966565349599</v>
+      </c>
     </row>
-    <row r="52" spans="1:83">
+    <row r="52" spans="1:84">
       <c r="A52" s="2">
         <v>37848</v>
       </c>
@@ -13191,8 +13341,11 @@
       <c r="CE52">
         <v>0.9105256768240864</v>
       </c>
+      <c r="CF52">
+        <v>0.9105256768240864</v>
+      </c>
     </row>
-    <row r="53" spans="1:83">
+    <row r="53" spans="1:84">
       <c r="A53" s="2">
         <v>37940</v>
       </c>
@@ -13442,8 +13595,11 @@
       <c r="CE53">
         <v>0.1203079884504263</v>
       </c>
+      <c r="CF53">
+        <v>0.1203079884504263</v>
+      </c>
     </row>
-    <row r="54" spans="1:83">
+    <row r="54" spans="1:84">
       <c r="A54" s="2">
         <v>38032</v>
       </c>
@@ -13693,8 +13849,11 @@
       <c r="CE54">
         <v>-0.1562124489305401</v>
       </c>
+      <c r="CF54">
+        <v>-0.1562124489305401</v>
+      </c>
     </row>
-    <row r="55" spans="1:83">
+    <row r="55" spans="1:84">
       <c r="A55" s="2">
         <v>38123</v>
       </c>
@@ -13944,8 +14103,11 @@
       <c r="CE55">
         <v>0.589721988205554</v>
       </c>
+      <c r="CF55">
+        <v>0.589721988205554</v>
+      </c>
     </row>
-    <row r="56" spans="1:83">
+    <row r="56" spans="1:84">
       <c r="A56" s="2">
         <v>38214</v>
       </c>
@@ -14195,8 +14357,11 @@
       <c r="CE56">
         <v>-0.323043790380469</v>
       </c>
+      <c r="CF56">
+        <v>-0.323043790380469</v>
+      </c>
     </row>
-    <row r="57" spans="1:83">
+    <row r="57" spans="1:84">
       <c r="A57" s="2">
         <v>38306</v>
       </c>
@@ -14446,8 +14611,11 @@
       <c r="CE57">
         <v>-0.03601008282319185</v>
       </c>
+      <c r="CF57">
+        <v>-0.03601008282319185</v>
+      </c>
     </row>
-    <row r="58" spans="1:83">
+    <row r="58" spans="1:84">
       <c r="A58" s="2">
         <v>38398</v>
       </c>
@@ -14697,8 +14865,11 @@
       <c r="CE58">
         <v>0.1560999039385152</v>
       </c>
+      <c r="CF58">
+        <v>0.1560999039385152</v>
+      </c>
     </row>
-    <row r="59" spans="1:83">
+    <row r="59" spans="1:84">
       <c r="A59" s="2">
         <v>38488</v>
       </c>
@@ -14945,8 +15116,11 @@
       <c r="CE59">
         <v>0.5994485073732168</v>
       </c>
+      <c r="CF59">
+        <v>0.5994485073732168</v>
+      </c>
     </row>
-    <row r="60" spans="1:83">
+    <row r="60" spans="1:84">
       <c r="A60" s="2">
         <v>38579</v>
       </c>
@@ -15190,8 +15364,11 @@
       <c r="CE60">
         <v>0.7865570253843364</v>
       </c>
+      <c r="CF60">
+        <v>0.7865570253843364</v>
+      </c>
     </row>
-    <row r="61" spans="1:83">
+    <row r="61" spans="1:84">
       <c r="A61" s="2">
         <v>38671</v>
       </c>
@@ -15432,8 +15609,11 @@
       <c r="CE61">
         <v>0.3783847700130157</v>
       </c>
+      <c r="CF61">
+        <v>0.3783847700130157</v>
+      </c>
     </row>
-    <row r="62" spans="1:83">
+    <row r="62" spans="1:84">
       <c r="A62" s="2">
         <v>38763</v>
       </c>
@@ -15671,8 +15851,11 @@
       <c r="CE62">
         <v>1.119095299799744</v>
       </c>
+      <c r="CF62">
+        <v>1.119095299799744</v>
+      </c>
     </row>
-    <row r="63" spans="1:83">
+    <row r="63" spans="1:84">
       <c r="A63" s="2">
         <v>38853</v>
       </c>
@@ -15907,8 +16090,11 @@
       <c r="CE63">
         <v>1.712488350419384</v>
       </c>
+      <c r="CF63">
+        <v>1.712488350419384</v>
+      </c>
     </row>
-    <row r="64" spans="1:83">
+    <row r="64" spans="1:84">
       <c r="A64" s="2">
         <v>38944</v>
       </c>
@@ -16140,8 +16326,11 @@
       <c r="CE64">
         <v>0.7559271561104073</v>
       </c>
+      <c r="CF64">
+        <v>0.7559271561104073</v>
+      </c>
     </row>
-    <row r="65" spans="1:83">
+    <row r="65" spans="1:84">
       <c r="A65" s="2">
         <v>39036</v>
       </c>
@@ -16370,8 +16559,11 @@
       <c r="CE65">
         <v>1.466409003069235</v>
       </c>
+      <c r="CF65">
+        <v>1.466409003069235</v>
+      </c>
     </row>
-    <row r="66" spans="1:83">
+    <row r="66" spans="1:84">
       <c r="A66" s="2">
         <v>39128</v>
       </c>
@@ -16597,8 +16789,11 @@
       <c r="CE66">
         <v>0.1344387183508742</v>
       </c>
+      <c r="CF66">
+        <v>0.1344387183508742</v>
+      </c>
     </row>
-    <row r="67" spans="1:83">
+    <row r="67" spans="1:84">
       <c r="A67" s="2">
         <v>39218</v>
       </c>
@@ -16821,8 +17016,11 @@
       <c r="CE67">
         <v>0.6601029313045462</v>
       </c>
+      <c r="CF67">
+        <v>0.6601029313045462</v>
+      </c>
     </row>
-    <row r="68" spans="1:83">
+    <row r="68" spans="1:84">
       <c r="A68" s="2">
         <v>39309</v>
       </c>
@@ -17042,8 +17240,11 @@
       <c r="CE68">
         <v>0.5112815382905501</v>
       </c>
+      <c r="CF68">
+        <v>0.5112815382905501</v>
+      </c>
     </row>
-    <row r="69" spans="1:83">
+    <row r="69" spans="1:84">
       <c r="A69" s="2">
         <v>39401</v>
       </c>
@@ -17260,8 +17461,11 @@
       <c r="CE69">
         <v>0.7409045670684369</v>
       </c>
+      <c r="CF69">
+        <v>0.7409045670684369</v>
+      </c>
     </row>
-    <row r="70" spans="1:83">
+    <row r="70" spans="1:84">
       <c r="A70" s="2">
         <v>39493</v>
       </c>
@@ -17475,8 +17679,11 @@
       <c r="CE70">
         <v>0.5817782656421527</v>
       </c>
+      <c r="CF70">
+        <v>0.5817782656421527</v>
+      </c>
     </row>
-    <row r="71" spans="1:83">
+    <row r="71" spans="1:84">
       <c r="A71" s="2">
         <v>39584</v>
       </c>
@@ -17687,8 +17894,11 @@
       <c r="CE71">
         <v>-0.3601440576230474</v>
       </c>
+      <c r="CF71">
+        <v>-0.3601440576230474</v>
+      </c>
     </row>
-    <row r="72" spans="1:83">
+    <row r="72" spans="1:84">
       <c r="A72" s="2">
         <v>39675</v>
       </c>
@@ -17896,8 +18106,11 @@
       <c r="CE72">
         <v>-0.547645125958379</v>
       </c>
+      <c r="CF72">
+        <v>-0.547645125958379</v>
+      </c>
     </row>
-    <row r="73" spans="1:83">
+    <row r="73" spans="1:84">
       <c r="A73" s="2">
         <v>39767</v>
       </c>
@@ -18102,8 +18315,11 @@
       <c r="CE73">
         <v>-1.552863436123344</v>
       </c>
+      <c r="CF73">
+        <v>-1.552863436123344</v>
+      </c>
     </row>
-    <row r="74" spans="1:83">
+    <row r="74" spans="1:84">
       <c r="A74" s="2">
         <v>39859</v>
       </c>
@@ -18305,8 +18521,11 @@
       <c r="CE74">
         <v>-4.687325204161537</v>
       </c>
+      <c r="CF74">
+        <v>-4.687325204161537</v>
+      </c>
     </row>
-    <row r="75" spans="1:83">
+    <row r="75" spans="1:84">
       <c r="A75" s="2">
         <v>39949</v>
       </c>
@@ -18505,8 +18724,11 @@
       <c r="CE75">
         <v>0.2464788732394293</v>
       </c>
+      <c r="CF75">
+        <v>0.2464788732394293</v>
+      </c>
     </row>
-    <row r="76" spans="1:83">
+    <row r="76" spans="1:84">
       <c r="A76" s="2">
         <v>40040</v>
       </c>
@@ -18702,8 +18924,11 @@
       <c r="CE76">
         <v>0.6205362369745945</v>
       </c>
+      <c r="CF76">
+        <v>0.6205362369745945</v>
+      </c>
     </row>
-    <row r="77" spans="1:83">
+    <row r="77" spans="1:84">
       <c r="A77" s="2">
         <v>40132</v>
       </c>
@@ -18896,8 +19121,11 @@
       <c r="CE77">
         <v>0.7679776588317392</v>
       </c>
+      <c r="CF77">
+        <v>0.7679776588317392</v>
+      </c>
     </row>
-    <row r="78" spans="1:83">
+    <row r="78" spans="1:84">
       <c r="A78" s="2">
         <v>40224</v>
       </c>
@@ -19087,8 +19315,11 @@
       <c r="CE78">
         <v>0.7274826789838449</v>
       </c>
+      <c r="CF78">
+        <v>0.7274826789838449</v>
+      </c>
     </row>
-    <row r="79" spans="1:83">
+    <row r="79" spans="1:84">
       <c r="A79" s="2">
         <v>40314</v>
       </c>
@@ -19275,8 +19506,11 @@
       <c r="CE79">
         <v>2.166685773243151</v>
       </c>
+      <c r="CF79">
+        <v>2.166685773243151</v>
+      </c>
     </row>
-    <row r="80" spans="1:83">
+    <row r="80" spans="1:84">
       <c r="A80" s="2">
         <v>40405</v>
       </c>
@@ -19460,8 +19694,11 @@
       <c r="CE80">
         <v>0.9649910233393171</v>
       </c>
+      <c r="CF80">
+        <v>0.9649910233393171</v>
+      </c>
     </row>
-    <row r="81" spans="1:83">
+    <row r="81" spans="1:84">
       <c r="A81" s="2">
         <v>40497</v>
       </c>
@@ -19642,8 +19879,11 @@
       <c r="CE81">
         <v>0.6557012669481986</v>
       </c>
+      <c r="CF81">
+        <v>0.6557012669481986</v>
+      </c>
     </row>
-    <row r="82" spans="1:83">
+    <row r="82" spans="1:84">
       <c r="A82" s="2">
         <v>40589</v>
       </c>
@@ -19821,8 +20061,11 @@
       <c r="CE82">
         <v>1.810754112840897</v>
       </c>
+      <c r="CF82">
+        <v>1.810754112840897</v>
+      </c>
     </row>
-    <row r="83" spans="1:83">
+    <row r="83" spans="1:84">
       <c r="A83" s="2">
         <v>40679</v>
       </c>
@@ -19997,8 +20240,11 @@
       <c r="CE83">
         <v>0.2711202689513068</v>
       </c>
+      <c r="CF83">
+        <v>0.2711202689513068</v>
+      </c>
     </row>
-    <row r="84" spans="1:83">
+    <row r="84" spans="1:84">
       <c r="A84" s="2">
         <v>40770</v>
       </c>
@@ -20170,8 +20416,11 @@
       <c r="CE84">
         <v>0.5407743889249406</v>
       </c>
+      <c r="CF84">
+        <v>0.5407743889249406</v>
+      </c>
     </row>
-    <row r="85" spans="1:83">
+    <row r="85" spans="1:84">
       <c r="A85" s="2">
         <v>40862</v>
       </c>
@@ -20340,8 +20589,11 @@
       <c r="CE85">
         <v>-0.01075731497417266</v>
       </c>
+      <c r="CF85">
+        <v>-0.01075731497417266</v>
+      </c>
     </row>
-    <row r="86" spans="1:83">
+    <row r="86" spans="1:84">
       <c r="A86" s="2">
         <v>40954</v>
       </c>
@@ -20507,8 +20759,11 @@
       <c r="CE86">
         <v>0.2151694459386798</v>
       </c>
+      <c r="CF86">
+        <v>0.2151694459386798</v>
+      </c>
     </row>
-    <row r="87" spans="1:83">
+    <row r="87" spans="1:84">
       <c r="A87" s="2">
         <v>41045</v>
       </c>
@@ -20671,8 +20926,11 @@
       <c r="CE87">
         <v>0.1073537305421302</v>
       </c>
+      <c r="CF87">
+        <v>0.1073537305421302</v>
+      </c>
     </row>
-    <row r="88" spans="1:83">
+    <row r="88" spans="1:84">
       <c r="A88" s="2">
         <v>41136</v>
       </c>
@@ -20832,8 +21090,11 @@
       <c r="CE88">
         <v>0.2037533512064319</v>
       </c>
+      <c r="CF88">
+        <v>0.2037533512064319</v>
+      </c>
     </row>
-    <row r="89" spans="1:83">
+    <row r="89" spans="1:84">
       <c r="A89" s="2">
         <v>41228</v>
       </c>
@@ -20990,8 +21251,11 @@
       <c r="CE89">
         <v>-0.2996575342465766</v>
       </c>
+      <c r="CF89">
+        <v>-0.2996575342465766</v>
+      </c>
     </row>
-    <row r="90" spans="1:83">
+    <row r="90" spans="1:84">
       <c r="A90" s="2">
         <v>41320</v>
       </c>
@@ -21145,8 +21409,11 @@
       <c r="CE90">
         <v>-0.5581794761700257</v>
       </c>
+      <c r="CF90">
+        <v>-0.5581794761700257</v>
+      </c>
     </row>
-    <row r="91" spans="1:83">
+    <row r="91" spans="1:84">
       <c r="A91" s="2">
         <v>41410</v>
       </c>
@@ -21297,8 +21564,11 @@
       <c r="CE91">
         <v>1.165803108808288</v>
       </c>
+      <c r="CF91">
+        <v>1.165803108808288</v>
+      </c>
     </row>
-    <row r="92" spans="1:83">
+    <row r="92" spans="1:84">
       <c r="A92" s="2">
         <v>41501</v>
       </c>
@@ -21446,8 +21716,11 @@
       <c r="CE92">
         <v>0.5121638924455868</v>
       </c>
+      <c r="CF92">
+        <v>0.5121638924455868</v>
+      </c>
     </row>
-    <row r="93" spans="1:83">
+    <row r="93" spans="1:84">
       <c r="A93" s="2">
         <v>41593</v>
       </c>
@@ -21592,8 +21865,11 @@
       <c r="CE93">
         <v>0.1486199575371556</v>
       </c>
+      <c r="CF93">
+        <v>0.1486199575371556</v>
+      </c>
     </row>
-    <row r="94" spans="1:83">
+    <row r="94" spans="1:84">
       <c r="A94" s="2">
         <v>41685</v>
       </c>
@@ -21735,8 +22011,11 @@
       <c r="CE94">
         <v>1.049395802416785</v>
       </c>
+      <c r="CF94">
+        <v>1.049395802416785</v>
+      </c>
     </row>
-    <row r="95" spans="1:83">
+    <row r="95" spans="1:84">
       <c r="A95" s="2">
         <v>41775</v>
       </c>
@@ -21875,8 +22154,11 @@
       <c r="CE95">
         <v>-0.02097975453686774</v>
       </c>
+      <c r="CF95">
+        <v>-0.02097975453686774</v>
+      </c>
     </row>
-    <row r="96" spans="1:83">
+    <row r="96" spans="1:84">
       <c r="A96" s="2">
         <v>41866</v>
       </c>
@@ -22012,8 +22294,11 @@
       <c r="CE96">
         <v>0.5560801594795941</v>
       </c>
+      <c r="CF96">
+        <v>0.5560801594795941</v>
+      </c>
     </row>
-    <row r="97" spans="1:83">
+    <row r="97" spans="1:84">
       <c r="A97" s="2">
         <v>41958</v>
       </c>
@@ -22146,8 +22431,11 @@
       <c r="CE97">
         <v>0.7616861435726103</v>
       </c>
+      <c r="CF97">
+        <v>0.7616861435726103</v>
+      </c>
     </row>
-    <row r="98" spans="1:83">
+    <row r="98" spans="1:84">
       <c r="A98" s="2">
         <v>42050</v>
       </c>
@@ -22277,8 +22565,11 @@
       <c r="CE98">
         <v>-0.2174588381484869</v>
       </c>
+      <c r="CF98">
+        <v>-0.2174588381484869</v>
+      </c>
     </row>
-    <row r="99" spans="1:83">
+    <row r="99" spans="1:84">
       <c r="A99" s="2">
         <v>42140</v>
       </c>
@@ -22405,8 +22696,11 @@
       <c r="CE99">
         <v>0.5188875051888751</v>
       </c>
+      <c r="CF99">
+        <v>0.5188875051888751</v>
+      </c>
     </row>
-    <row r="100" spans="1:83">
+    <row r="100" spans="1:84">
       <c r="A100" s="2">
         <v>42231</v>
       </c>
@@ -22530,8 +22824,11 @@
       <c r="CE100">
         <v>0.5368573198430684</v>
       </c>
+      <c r="CF100">
+        <v>0.5368573198430684</v>
+      </c>
     </row>
-    <row r="101" spans="1:83">
+    <row r="101" spans="1:84">
       <c r="A101" s="2">
         <v>42323</v>
       </c>
@@ -22652,8 +22949,11 @@
       <c r="CE101">
         <v>0.5134524543027316</v>
       </c>
+      <c r="CF101">
+        <v>0.5134524543027316</v>
+      </c>
     </row>
-    <row r="102" spans="1:83">
+    <row r="102" spans="1:84">
       <c r="A102" s="2">
         <v>42415</v>
       </c>
@@ -22771,8 +23071,11 @@
       <c r="CE102">
         <v>0.8786268900694724</v>
       </c>
+      <c r="CF102">
+        <v>0.8786268900694724</v>
+      </c>
     </row>
-    <row r="103" spans="1:83">
+    <row r="103" spans="1:84">
       <c r="A103" s="2">
         <v>42506</v>
       </c>
@@ -22887,8 +23190,11 @@
       <c r="CE103">
         <v>0.2228073728985202</v>
       </c>
+      <c r="CF103">
+        <v>0.2228073728985202</v>
+      </c>
     </row>
-    <row r="104" spans="1:83">
+    <row r="104" spans="1:84">
       <c r="A104" s="2">
         <v>42597</v>
       </c>
@@ -23000,8 +23306,11 @@
       <c r="CE104">
         <v>0.3536782538399439</v>
       </c>
+      <c r="CF104">
+        <v>0.3536782538399439</v>
+      </c>
     </row>
-    <row r="105" spans="1:83">
+    <row r="105" spans="1:84">
       <c r="A105" s="2">
         <v>42689</v>
       </c>
@@ -23110,8 +23419,11 @@
       <c r="CE105">
         <v>0.4631960527640658</v>
       </c>
+      <c r="CF105">
+        <v>0.4631960527640658</v>
+      </c>
     </row>
-    <row r="106" spans="1:83">
+    <row r="106" spans="1:84">
       <c r="A106" s="2">
         <v>42781</v>
       </c>
@@ -23217,8 +23529,11 @@
       <c r="CE106">
         <v>1.292973839831619</v>
       </c>
+      <c r="CF106">
+        <v>1.292973839831619</v>
+      </c>
     </row>
-    <row r="107" spans="1:83">
+    <row r="107" spans="1:84">
       <c r="A107" s="2">
         <v>42871</v>
       </c>
@@ -23321,8 +23636,11 @@
       <c r="CE107">
         <v>0.7124480506629713</v>
       </c>
+      <c r="CF107">
+        <v>0.7124480506629713</v>
+      </c>
     </row>
-    <row r="108" spans="1:83">
+    <row r="108" spans="1:84">
       <c r="A108" s="2">
         <v>42962</v>
       </c>
@@ -23422,8 +23740,11 @@
       <c r="CE108">
         <v>0.7958341520927513</v>
       </c>
+      <c r="CF108">
+        <v>0.7958341520927513</v>
+      </c>
     </row>
-    <row r="109" spans="1:83">
+    <row r="109" spans="1:84">
       <c r="A109" s="2">
         <v>43054</v>
       </c>
@@ -23520,8 +23841,11 @@
       <c r="CE109">
         <v>1.01374402963251</v>
       </c>
+      <c r="CF109">
+        <v>1.01374402963251</v>
+      </c>
     </row>
-    <row r="110" spans="1:83">
+    <row r="110" spans="1:84">
       <c r="A110" s="2">
         <v>43146</v>
       </c>
@@ -23615,8 +23939,11 @@
       <c r="CE110">
         <v>-0.5500337740036604</v>
       </c>
+      <c r="CF110">
+        <v>-0.5500337740036604</v>
+      </c>
     </row>
-    <row r="111" spans="1:83">
+    <row r="111" spans="1:84">
       <c r="A111" s="2">
         <v>43236</v>
       </c>
@@ -23707,8 +24034,11 @@
       <c r="CE111">
         <v>0.7859499320784032</v>
       </c>
+      <c r="CF111">
+        <v>0.7859499320784032</v>
+      </c>
     </row>
-    <row r="112" spans="1:83">
+    <row r="112" spans="1:84">
       <c r="A112" s="2">
         <v>43327</v>
       </c>
@@ -23796,8 +24126,11 @@
       <c r="CE112">
         <v>-0.654664484451725</v>
       </c>
+      <c r="CF112">
+        <v>-0.654664484451725</v>
+      </c>
     </row>
-    <row r="113" spans="1:83">
+    <row r="113" spans="1:84">
       <c r="A113" s="2">
         <v>43419</v>
       </c>
@@ -23882,8 +24215,11 @@
       <c r="CE113">
         <v>0.4457796298090977</v>
       </c>
+      <c r="CF113">
+        <v>0.4457796298090977</v>
+      </c>
     </row>
-    <row r="114" spans="1:83">
+    <row r="114" spans="1:84">
       <c r="A114" s="2">
         <v>43511</v>
       </c>
@@ -23965,8 +24301,11 @@
       <c r="CE114">
         <v>0.6560540279787676</v>
       </c>
+      <c r="CF114">
+        <v>0.6560540279787676</v>
+      </c>
     </row>
-    <row r="115" spans="1:83">
+    <row r="115" spans="1:84">
       <c r="A115" s="2">
         <v>43601</v>
       </c>
@@ -24045,8 +24384,11 @@
       <c r="CE115">
         <v>0.05750982459503716</v>
       </c>
+      <c r="CF115">
+        <v>0.05750982459503716</v>
+      </c>
     </row>
-    <row r="116" spans="1:83">
+    <row r="116" spans="1:84">
       <c r="A116" s="2">
         <v>43692</v>
       </c>
@@ -24122,8 +24464,11 @@
       <c r="CE116">
         <v>0.3831784653702516</v>
       </c>
+      <c r="CF116">
+        <v>0.3831784653702516</v>
+      </c>
     </row>
-    <row r="117" spans="1:83">
+    <row r="117" spans="1:84">
       <c r="A117" s="2">
         <v>43784</v>
       </c>
@@ -24196,8 +24541,11 @@
       <c r="CE117">
         <v>-0.3340013360053521</v>
       </c>
+      <c r="CF117">
+        <v>-0.3340013360053521</v>
+      </c>
     </row>
-    <row r="118" spans="1:83">
+    <row r="118" spans="1:84">
       <c r="A118" s="2">
         <v>43876</v>
       </c>
@@ -24267,8 +24615,11 @@
       <c r="CE118">
         <v>-2.029873611643053</v>
       </c>
+      <c r="CF118">
+        <v>-2.029873611643053</v>
+      </c>
     </row>
-    <row r="119" spans="1:83">
+    <row r="119" spans="1:84">
       <c r="A119" s="2">
         <v>43967</v>
       </c>
@@ -24335,8 +24686,11 @@
       <c r="CE119">
         <v>-8.874120406567631</v>
       </c>
+      <c r="CF119">
+        <v>-8.874120406567631</v>
+      </c>
     </row>
-    <row r="120" spans="1:83">
+    <row r="120" spans="1:84">
       <c r="A120" s="2">
         <v>44058</v>
       </c>
@@ -24400,8 +24754,11 @@
       <c r="CE120">
         <v>8.67653367653368</v>
       </c>
+      <c r="CF120">
+        <v>8.67653367653368</v>
+      </c>
     </row>
-    <row r="121" spans="1:83">
+    <row r="121" spans="1:84">
       <c r="A121" s="2">
         <v>44150</v>
       </c>
@@ -24462,8 +24819,11 @@
       <c r="CE121">
         <v>0.9671370768775328</v>
       </c>
+      <c r="CF121">
+        <v>0.9671370768775328</v>
+      </c>
     </row>
-    <row r="122" spans="1:83">
+    <row r="122" spans="1:84">
       <c r="A122" s="2">
         <v>44242</v>
       </c>
@@ -24521,8 +24881,11 @@
       <c r="CE122">
         <v>-0.6157755840093788</v>
       </c>
+      <c r="CF122">
+        <v>-0.6157755840093788</v>
+      </c>
     </row>
-    <row r="123" spans="1:83">
+    <row r="123" spans="1:84">
       <c r="A123" s="2">
         <v>44332</v>
       </c>
@@ -24577,8 +24940,11 @@
       <c r="CE123">
         <v>2.350511408339877</v>
       </c>
+      <c r="CF123">
+        <v>2.350511408339877</v>
+      </c>
     </row>
-    <row r="124" spans="1:83">
+    <row r="124" spans="1:84">
       <c r="A124" s="2">
         <v>44423</v>
       </c>
@@ -24630,8 +24996,11 @@
       <c r="CE124">
         <v>0.08648025367541406</v>
       </c>
+      <c r="CF124">
+        <v>0.08648025367541406</v>
+      </c>
     </row>
-    <row r="125" spans="1:83">
+    <row r="125" spans="1:84">
       <c r="A125" s="2">
         <v>44515</v>
       </c>
@@ -24680,8 +25049,11 @@
       <c r="CE125">
         <v>0.5376344086021527</v>
       </c>
+      <c r="CF125">
+        <v>0.5376344086021527</v>
+      </c>
     </row>
-    <row r="126" spans="1:83">
+    <row r="126" spans="1:84">
       <c r="A126" s="2">
         <v>44607</v>
       </c>
@@ -24727,8 +25099,11 @@
       <c r="CE126">
         <v>0.6779984721161268</v>
       </c>
+      <c r="CF126">
+        <v>0.6779984721161268</v>
+      </c>
     </row>
-    <row r="127" spans="1:83">
+    <row r="127" spans="1:84">
       <c r="A127" s="2">
         <v>44697</v>
       </c>
@@ -24771,8 +25146,11 @@
       <c r="CE127">
         <v>0.1517594612539093</v>
       </c>
+      <c r="CF127">
+        <v>0.1517594612539093</v>
+      </c>
     </row>
-    <row r="128" spans="1:83">
+    <row r="128" spans="1:84">
       <c r="A128" s="2">
         <v>44788</v>
       </c>
@@ -24812,8 +25190,11 @@
       <c r="CE128">
         <v>0.2935884079931833</v>
       </c>
+      <c r="CF128">
+        <v>0.2935884079931833</v>
+      </c>
     </row>
-    <row r="129" spans="1:83">
+    <row r="129" spans="1:84">
       <c r="A129" s="2">
         <v>44880</v>
       </c>
@@ -24850,8 +25231,11 @@
       <c r="CE129">
         <v>-0.3493862134088806</v>
       </c>
+      <c r="CF129">
+        <v>-0.3493862134088806</v>
+      </c>
     </row>
-    <row r="130" spans="1:83">
+    <row r="130" spans="1:84">
       <c r="A130" s="2">
         <v>44972</v>
       </c>
@@ -24885,8 +25269,11 @@
       <c r="CE130">
         <v>-0.473798919738463</v>
       </c>
+      <c r="CF130">
+        <v>-0.473798919738463</v>
+      </c>
     </row>
-    <row r="131" spans="1:83">
+    <row r="131" spans="1:84">
       <c r="A131" s="2">
         <v>45062</v>
       </c>
@@ -24917,8 +25304,11 @@
       <c r="CE131">
         <v>-0.07616871370084576</v>
       </c>
+      <c r="CF131">
+        <v>-0.07616871370084576</v>
+      </c>
     </row>
-    <row r="132" spans="1:83">
+    <row r="132" spans="1:84">
       <c r="A132" s="2">
         <v>45153</v>
       </c>
@@ -24946,8 +25336,11 @@
       <c r="CE132">
         <v>0</v>
       </c>
+      <c r="CF132">
+        <v>0</v>
+      </c>
     </row>
-    <row r="133" spans="1:83">
+    <row r="133" spans="1:84">
       <c r="A133" s="2">
         <v>45245</v>
       </c>
@@ -24972,8 +25365,11 @@
       <c r="CE133">
         <v>-0.2763220581229216</v>
       </c>
+      <c r="CF133">
+        <v>-0.2763220581229216</v>
+      </c>
     </row>
-    <row r="134" spans="1:83">
+    <row r="134" spans="1:84">
       <c r="A134" s="2">
         <v>45337</v>
       </c>
@@ -24995,8 +25391,11 @@
       <c r="CE134">
         <v>-0.1051022358111976</v>
       </c>
+      <c r="CF134">
+        <v>-0.1051022358111976</v>
+      </c>
     </row>
-    <row r="135" spans="1:83">
+    <row r="135" spans="1:84">
       <c r="A135" s="2">
         <v>45428</v>
       </c>
@@ -25015,8 +25414,11 @@
       <c r="CE135">
         <v>-0.2582496413199388</v>
       </c>
+      <c r="CF135">
+        <v>-0.2582496413199388</v>
+      </c>
     </row>
-    <row r="136" spans="1:83">
+    <row r="136" spans="1:84">
       <c r="A136" s="2">
         <v>45519</v>
       </c>
@@ -25032,8 +25434,11 @@
       <c r="CE136">
         <v>0.01917913310317992</v>
       </c>
+      <c r="CF136">
+        <v>0.01917913310317992</v>
+      </c>
     </row>
-    <row r="137" spans="1:83">
+    <row r="137" spans="1:84">
       <c r="A137" s="2">
         <v>45611</v>
       </c>
@@ -25046,8 +25451,11 @@
       <c r="CE137">
         <v>0.1821668264621263</v>
       </c>
+      <c r="CF137">
+        <v>0.1821668264621263</v>
+      </c>
     </row>
-    <row r="138" spans="1:83">
+    <row r="138" spans="1:84">
       <c r="A138" s="2">
         <v>45703</v>
       </c>
@@ -25057,18 +25465,32 @@
       <c r="CE138">
         <v>0.3062494018566441</v>
       </c>
+      <c r="CF138">
+        <v>0.3062494018566441</v>
+      </c>
     </row>
-    <row r="139" spans="1:83">
+    <row r="139" spans="1:84">
       <c r="A139" s="2">
         <v>45793</v>
       </c>
       <c r="CE139">
         <v>-0.2766911554241067</v>
       </c>
+      <c r="CF139">
+        <v>-0.2099036351493167</v>
+      </c>
     </row>
-    <row r="140" spans="1:83">
+    <row r="140" spans="1:84">
       <c r="A140" s="2">
         <v>45884</v>
+      </c>
+      <c r="CF140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:84">
+      <c r="A141" s="2">
+        <v>45976</v>
       </c>
     </row>
   </sheetData>
